--- a/revisions.xlsx
+++ b/revisions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo ThinkBook\Downloads\temporary\School Files\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CEA08F-9EDD-4D21-B842-5DEDD9E57FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8847DF-449D-4821-87CC-988897715AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>Comment</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>changed to "however"</t>
+  </si>
+  <si>
+    <t>made a paragraph instead</t>
   </si>
 </sst>
 </file>
@@ -551,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,6 +763,9 @@
       <c r="H10" t="s">
         <v>13</v>
       </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
       <c r="O10" t="s">
         <v>25</v>
       </c>
@@ -782,6 +788,9 @@
       <c r="H12" t="s">
         <v>15</v>
       </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
       <c r="O12" t="s">
         <v>26</v>
       </c>
@@ -804,6 +813,9 @@
       <c r="H14" t="s">
         <v>48</v>
       </c>
+      <c r="I14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
@@ -820,6 +832,9 @@
       <c r="H16" t="s">
         <v>17</v>
       </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
       <c r="O16" t="s">
         <v>28</v>
       </c>
@@ -834,6 +849,9 @@
       <c r="O17" t="s">
         <v>29</v>
       </c>
+      <c r="P17" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
@@ -842,6 +860,9 @@
       <c r="O18" t="s">
         <v>30</v>
       </c>
+      <c r="P18" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H19" t="s">
@@ -861,15 +882,24 @@
       <c r="O20" t="s">
         <v>32</v>
       </c>
+      <c r="P20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="8:16" x14ac:dyDescent="0.3">
       <c r="O21" t="s">
         <v>33</v>
       </c>
+      <c r="P21" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.3">
       <c r="O22" t="s">
         <v>34</v>
+      </c>
+      <c r="P22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.3">
